--- a/SANTA_CRUZ_DO_SUL.xlsx
+++ b/SANTA_CRUZ_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95A731D4-F4EA-445D-A8F6-82EDB3814066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB563880-C26B-4109-AD69-C66028819EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1211,7 +1211,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{40D02137-5DA6-4D34-9A00-4A3374D1EE5C}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{4372D6C3-6213-41FC-AC4F-FED7E249A681}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1241,10 +1241,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93072282-3F30-44B1-B95F-35441EED28B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135B5938-B70D-4CA8-B9EF-9C2BE228E425}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,7 +1282,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F212F157-E030-4763-A75F-BD7985633015}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE62BB14-FD5A-4E98-9208-C47B4A316DA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1345,7 +1345,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45F29D2-5E7D-4343-8B58-C6C0A6E1DF4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEEB435-8A38-4CD2-A4F5-AC505143522C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1364,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DA8162-B490-B55C-438B-81E97A6D70FF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3BF1AA-BB73-D5BD-817F-F2BE7C83583A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1413,7 +1413,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4767D3-EDA4-9157-71A3-78344225214D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E14EC79-6DDE-256B-E3B6-1D9D7A40A89B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1432,7 +1432,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6436D6-7364-879D-622C-08634B32B9B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAB8A19-3FFB-1F37-3342-25C172A407A2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1463,7 +1463,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1256BE07-5F6A-3593-3786-A00660409FA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E154A9D-2A15-2B14-38DB-0318884F7FEE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1494,7 +1494,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F183EB-42A2-93EE-A4E7-A9E37467F57E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59FAE81-2706-35FC-61E8-2C568C61E791}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1537,7 +1537,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F31A31F-444A-45BD-931A-29657A63DDE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0FC986-E1EC-4266-93A3-16F44ED2C854}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1575,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8935291-4D66-496C-9F76-C478E93B694E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80113BD2-A5AF-4F2D-8C64-EF07B67DF689}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,7 +1618,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F593E79D-A0F8-439C-82FB-13AF4AA5364F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217D6FBC-2130-415A-B96E-7D581A209577}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEC782D-69A2-4D3D-ACEB-2E40C7CDCFCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8471E97-5CDD-4A00-97F2-EFC135F9CD4B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SANTA_CRUZ_DO_SUL.xlsx
+++ b/SANTA_CRUZ_DO_SUL.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB563880-C26B-4109-AD69-C66028819EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE3B1F54-D8A7-4813-BF1B-FF4E1DB3F808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="299">
   <si>
     <t>COMARCA</t>
   </si>
@@ -923,15 +922,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SANTA CRUZ DO SUL</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1191,27 +1181,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4372D6C3-6213-41FC-AC4F-FED7E249A681}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{AAD9AB18-B466-49E6-9802-E751E29D0BB0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1241,10 +1216,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135B5938-B70D-4CA8-B9EF-9C2BE228E425}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A05873-F012-487D-8B9B-CE951B60533C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1282,7 +1257,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE62BB14-FD5A-4E98-9208-C47B4A316DA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D002820E-6F79-4D81-A2DB-3A7116635D7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1345,7 +1320,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEEB435-8A38-4CD2-A4F5-AC505143522C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E993860D-965F-4AB6-83C2-9A46A68EC038}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1339,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3BF1AA-BB73-D5BD-817F-F2BE7C83583A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B425508-2818-0B03-AC4A-411FB5BC1B5F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1413,7 +1388,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E14EC79-6DDE-256B-E3B6-1D9D7A40A89B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1637EEA-9299-D542-43A4-D613EFDE49D1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1432,7 +1407,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAB8A19-3FFB-1F37-3342-25C172A407A2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54037B4-A9A8-FB99-15F9-95181E74301E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1463,7 +1438,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E154A9D-2A15-2B14-38DB-0318884F7FEE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702101D1-3A82-EB22-D0D9-870803A3EF5C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1494,7 +1469,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59FAE81-2706-35FC-61E8-2C568C61E791}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D189B4EC-24D6-F583-48A8-47860942D08A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1537,7 +1512,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0FC986-E1EC-4266-93A3-16F44ED2C854}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF819E22-9E04-4751-9677-A47BA1011B06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1550,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80113BD2-A5AF-4F2D-8C64-EF07B67DF689}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA80694-1F6A-404F-AA1A-E65F407BE9C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,7 +1593,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217D6FBC-2130-415A-B96E-7D581A209577}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4245F228-C02E-4024-A35F-57CD9714CFC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8471E97-5CDD-4A00-97F2-EFC135F9CD4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34E3C4D-B915-49EA-85F3-859EFDE17AF0}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1943,98 +1918,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="35"/>
-    <col min="6" max="6" width="2" style="35" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="35"/>
+    <col min="1" max="5" width="12.5703125" style="30"/>
+    <col min="6" max="6" width="2" style="30" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="30" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="34"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="34"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="34"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="34"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="34"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="34"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="34"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="34"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="34"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="34"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="34"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="34"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="34"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
+      <c r="F29" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5480,52 +5455,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" s="30">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="33">
-        <v>222</v>
-      </c>
-      <c r="C2" s="31">
-        <v>1.468059780452321E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SANTA_CRUZ_DO_SUL.xlsx
+++ b/SANTA_CRUZ_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE3B1F54-D8A7-4813-BF1B-FF4E1DB3F808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E05FB70A-AB6F-4351-BA85-11509318FB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1186,7 +1186,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{AAD9AB18-B466-49E6-9802-E751E29D0BB0}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{840F6ACB-B3D4-4E25-B5A8-C2456B6689C9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1216,10 +1216,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A05873-F012-487D-8B9B-CE951B60533C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9822DB8F-B143-40EB-A3E0-B48D4066D539}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1257,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D002820E-6F79-4D81-A2DB-3A7116635D7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72662683-4641-459E-8E09-05249F06B295}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1320,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E993860D-965F-4AB6-83C2-9A46A68EC038}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A68FF3-82AC-4095-B66F-2FBB39A11F35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1339,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B425508-2818-0B03-AC4A-411FB5BC1B5F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2817713-44DF-FE1B-6C48-AEC2A6EC88D3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1388,7 +1388,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1637EEA-9299-D542-43A4-D613EFDE49D1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEC1E77-AA9A-2F23-8A5C-410313B49421}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1407,7 +1407,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54037B4-A9A8-FB99-15F9-95181E74301E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22C4A859-D1AF-8BC9-E441-B722164C1360}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1438,7 +1438,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702101D1-3A82-EB22-D0D9-870803A3EF5C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAFA7B7-08E1-412D-6A17-5C212143DAC9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1469,7 +1469,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D189B4EC-24D6-F583-48A8-47860942D08A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE45A3E-2643-6567-7460-28E0D9E42335}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1512,7 +1512,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF819E22-9E04-4751-9677-A47BA1011B06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC8F2E6-171B-4F6E-A709-BB38D08D12B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1550,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA80694-1F6A-404F-AA1A-E65F407BE9C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EB685E-E13A-4265-81F6-D6843A7CA5E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,50 +1575,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4245F228-C02E-4024-A35F-57CD9714CFC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1906,7 +1862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34E3C4D-B915-49EA-85F3-859EFDE17AF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4667C48-DC75-49B4-8C85-835F3904E52C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
